--- a/Lab4DataREV.xlsx
+++ b/Lab4DataREV.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pisihara\Box Sync\385\Fall 2018 MATLAB Modeling\MATLAB Files\MATLABLABSFORPRIMUSEDITION-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18195" windowHeight="9525" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="18192" windowHeight="9528" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="1" r:id="rId1"/>
     <sheet name="Exercise" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="comparison" sheetId="4" r:id="rId4"/>
-    <sheet name="Assign2" sheetId="5" r:id="rId5"/>
+    <sheet name="Assign2" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="357">
   <si>
     <t>Name </t>
   </si>
@@ -927,17 +932,179 @@
   </si>
   <si>
     <t>Estimated Prevalence(P) </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Slavery policy (POL)</t>
+  </si>
+  <si>
+    <t>Human rights (HURT)</t>
+  </si>
+  <si>
+    <t>Development (DEV)</t>
+  </si>
+  <si>
+    <t>State stability (STAB)</t>
+  </si>
+  <si>
+    <t>Discrimination (DISCR)</t>
+  </si>
+  <si>
+    <t>Estimated Prevalence (%) (P)</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>DRC</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -955,6 +1122,10 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1089,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1158,6 +1329,8 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1167,6 +1340,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1215,7 +1391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1250,7 +1426,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1465,17 +1641,17 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="8" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="7" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1501,7 +1677,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>279</v>
       </c>
@@ -1527,7 +1703,7 @@
         <v>0.1215</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>280</v>
       </c>
@@ -1553,7 +1729,7 @@
         <v>0.93620000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>281</v>
       </c>
@@ -1579,7 +1755,7 @@
         <v>0.73150000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>282</v>
       </c>
@@ -1605,7 +1781,7 @@
         <v>0.24759999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>283</v>
       </c>
@@ -1631,7 +1807,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>284</v>
       </c>
@@ -1657,7 +1833,7 @@
         <v>0.35920000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>285</v>
       </c>
@@ -1683,7 +1859,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>286</v>
       </c>
@@ -1709,7 +1885,7 @@
         <v>0.35920000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>287</v>
       </c>
@@ -1735,7 +1911,7 @@
         <v>0.35920000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>288</v>
       </c>
@@ -1761,7 +1937,7 @@
         <v>0.35920000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>289</v>
       </c>
@@ -1787,7 +1963,7 @@
         <v>0.35920000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>290</v>
       </c>
@@ -1813,7 +1989,7 @@
         <v>3.9729000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -1835,15 +2011,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1872,7 +2048,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -1901,7 +2077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1930,7 +2106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,7 +2135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1988,7 +2164,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -2017,7 +2193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -2046,7 +2222,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -2075,7 +2251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>57</v>
       </c>
@@ -2104,7 +2280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -2133,7 +2309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
@@ -2162,7 +2338,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>77</v>
       </c>
@@ -2191,7 +2367,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
@@ -2220,7 +2396,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>91</v>
       </c>
@@ -2249,7 +2425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
@@ -2278,7 +2454,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>104</v>
       </c>
@@ -2307,7 +2483,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>111</v>
       </c>
@@ -2336,7 +2512,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>115</v>
       </c>
@@ -2365,7 +2541,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>121</v>
       </c>
@@ -2394,7 +2570,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>126</v>
       </c>
@@ -2423,7 +2599,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>133</v>
       </c>
@@ -2452,7 +2628,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>138</v>
       </c>
@@ -2481,7 +2657,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>144</v>
       </c>
@@ -2510,7 +2686,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>149</v>
       </c>
@@ -2539,7 +2715,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>155</v>
       </c>
@@ -2568,7 +2744,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>161</v>
       </c>
@@ -2597,7 +2773,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>167</v>
       </c>
@@ -2626,7 +2802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>172</v>
       </c>
@@ -2655,7 +2831,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>180</v>
       </c>
@@ -2684,7 +2860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>186</v>
       </c>
@@ -2713,7 +2889,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>191</v>
       </c>
@@ -2742,7 +2918,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>196</v>
       </c>
@@ -2771,7 +2947,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>203</v>
       </c>
@@ -2800,7 +2976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>209</v>
       </c>
@@ -2829,7 +3005,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>214</v>
       </c>
@@ -2858,7 +3034,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>220</v>
       </c>
@@ -2887,7 +3063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>226</v>
       </c>
@@ -2916,7 +3092,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>231</v>
       </c>
@@ -2945,7 +3121,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>235</v>
       </c>
@@ -2974,7 +3150,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>242</v>
       </c>
@@ -3003,7 +3179,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>244</v>
       </c>
@@ -3032,7 +3208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>248</v>
       </c>
@@ -3061,7 +3237,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>253</v>
       </c>
@@ -3090,7 +3266,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>258</v>
       </c>
@@ -3119,7 +3295,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>263</v>
       </c>
@@ -3148,7 +3324,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>267</v>
       </c>
@@ -3177,7 +3353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>273</v>
       </c>
@@ -3217,7 +3393,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3231,9 +3407,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.1215</v>
       </c>
@@ -3241,7 +3417,7 @@
         <v>0.81072792293138007</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.93620000000000003</v>
       </c>
@@ -3249,7 +3425,7 @@
         <v>0.51776341308070495</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.73150000000000004</v>
       </c>
@@ -3257,7 +3433,7 @@
         <v>1.1097182858876908</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.24759999999999999</v>
       </c>
@@ -3265,7 +3441,7 @@
         <v>0.45357911863666045</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.36</v>
       </c>
@@ -3273,7 +3449,7 @@
         <v>0.51164199091998963</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.35920000000000002</v>
       </c>
@@ -3281,7 +3457,7 @@
         <v>0.94063080038406444</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.36</v>
       </c>
@@ -3289,7 +3465,7 @@
         <v>-0.12716316171667308</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.35920000000000002</v>
       </c>
@@ -3297,7 +3473,7 @@
         <v>0.98512273203915912</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.35920000000000002</v>
       </c>
@@ -3305,7 +3481,7 @@
         <v>0.25513969960838034</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.35920000000000002</v>
       </c>
@@ -3313,7 +3489,7 @@
         <v>0.9027922184167243</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.35920000000000002</v>
       </c>
@@ -3321,7 +3497,7 @@
         <v>1.0027686021931024</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.9729000000000001</v>
       </c>
@@ -3339,1236 +3515,1234 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="1" max="16384" width="14.44140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="24">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24">
+        <v>92.9</v>
+      </c>
+      <c r="D2" s="24">
+        <v>75.3</v>
+      </c>
+      <c r="E2" s="24">
+        <v>76.8</v>
+      </c>
+      <c r="F2" s="24">
+        <v>62.7</v>
+      </c>
+      <c r="G2" s="24">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="H2" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="24">
+        <v>2</v>
+      </c>
+      <c r="C3" s="24">
+        <v>78.8</v>
+      </c>
+      <c r="D3" s="24">
+        <v>78</v>
+      </c>
+      <c r="E3" s="24">
+        <v>83.9</v>
+      </c>
+      <c r="F3" s="24">
+        <v>80.7</v>
+      </c>
+      <c r="G3" s="24">
+        <v>64.3</v>
+      </c>
+      <c r="H3" s="24">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="24">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="C4" s="24">
+        <v>78.8</v>
+      </c>
+      <c r="D4" s="24">
+        <v>100</v>
+      </c>
+      <c r="E4" s="24">
+        <v>79.7</v>
+      </c>
+      <c r="F4" s="24">
+        <v>79.8</v>
+      </c>
+      <c r="G4" s="24">
+        <v>59.9</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="24">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C5" s="24">
+        <v>92.9</v>
+      </c>
+      <c r="D5" s="24">
+        <v>83.5</v>
+      </c>
+      <c r="E5" s="24">
+        <v>82.3</v>
+      </c>
+      <c r="F5" s="24">
+        <v>77</v>
+      </c>
+      <c r="G5" s="24">
+        <v>66.2</v>
+      </c>
+      <c r="H5" s="24">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="24">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="C6" s="24">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D6" s="24">
+        <v>50.5</v>
+      </c>
+      <c r="E6" s="24">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="F6" s="24">
+        <v>57.3</v>
+      </c>
+      <c r="G6" s="24">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="H6" s="24">
+        <v>1.1061000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="24">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="C7" s="24">
+        <v>78.8</v>
+      </c>
+      <c r="D7" s="24">
+        <v>23</v>
+      </c>
+      <c r="E7" s="24">
+        <v>49.6</v>
+      </c>
+      <c r="F7" s="24">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="G7" s="24">
+        <v>72.5</v>
+      </c>
+      <c r="H7" s="24">
+        <v>0.90680000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" s="24">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="C8" s="24">
+        <v>85.9</v>
+      </c>
+      <c r="D8" s="24">
+        <v>35.5</v>
+      </c>
+      <c r="E8" s="24">
+        <v>50.2</v>
+      </c>
+      <c r="F8" s="24">
+        <v>29.6</v>
+      </c>
+      <c r="G8" s="24">
+        <v>53.6</v>
+      </c>
+      <c r="H8" s="24">
+        <v>0.90680000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" s="24">
         <v>8</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="C9" s="24">
+        <v>71.7</v>
+      </c>
+      <c r="D9" s="24">
+        <v>25.9</v>
+      </c>
+      <c r="E9" s="24">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="F9" s="24">
+        <v>46.2</v>
+      </c>
+      <c r="G9" s="24">
+        <v>63.5</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0.74560000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="B10" s="24">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C10" s="24">
+        <v>54</v>
+      </c>
+      <c r="D10" s="24">
+        <v>44.9</v>
+      </c>
+      <c r="E10" s="24">
+        <v>77.8</v>
+      </c>
+      <c r="F10" s="24">
+        <v>55.5</v>
+      </c>
+      <c r="G10" s="24">
+        <v>41</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.74560000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11" s="24">
+        <v>10</v>
+      </c>
+      <c r="C11" s="24">
+        <v>61.1</v>
+      </c>
+      <c r="D11" s="24">
+        <v>47.8</v>
+      </c>
+      <c r="E11" s="24">
+        <v>86.9</v>
+      </c>
+      <c r="F11" s="24">
+        <v>55.2</v>
+      </c>
+      <c r="G11" s="24">
+        <v>50.2</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0.74560000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="24">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C12" s="24">
+        <v>54</v>
+      </c>
+      <c r="D12" s="24">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="E12" s="24">
+        <v>83.7</v>
+      </c>
+      <c r="F12" s="24">
+        <v>58.9</v>
+      </c>
+      <c r="G12" s="24">
+        <v>42.8</v>
+      </c>
+      <c r="H12" s="24">
+        <v>0.74560000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="B13" s="24">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C13" s="24">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D13" s="24">
+        <v>43.5</v>
+      </c>
+      <c r="E13" s="24">
+        <v>89.1</v>
+      </c>
+      <c r="F13" s="24">
+        <v>41.6</v>
+      </c>
+      <c r="G13" s="24">
+        <v>57.9</v>
+      </c>
+      <c r="H13" s="24">
+        <v>0.74560000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="B14" s="24">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C14" s="24">
+        <v>61.1</v>
+      </c>
+      <c r="D14" s="24">
+        <v>51.1</v>
+      </c>
+      <c r="E14" s="24">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="F14" s="24">
+        <v>48.5</v>
+      </c>
+      <c r="G14" s="24">
+        <v>67.7</v>
+      </c>
+      <c r="H14" s="24">
+        <v>0.74560000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" s="24">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C15" s="24">
+        <v>43.4</v>
+      </c>
+      <c r="D15" s="24">
+        <v>38.1</v>
+      </c>
+      <c r="E15" s="24">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="F15" s="24">
+        <v>54.3</v>
+      </c>
+      <c r="G15" s="24">
+        <v>55.7</v>
+      </c>
+      <c r="H15" s="24">
+        <v>0.74560000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="24">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="C16" s="24">
+        <v>61.1</v>
+      </c>
+      <c r="D16" s="24">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E16" s="24">
+        <v>80.3</v>
+      </c>
+      <c r="F16" s="24">
+        <v>51</v>
+      </c>
+      <c r="G16" s="24">
+        <v>50.1</v>
+      </c>
+      <c r="H16" s="24">
+        <v>0.74560000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="B17" s="24">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="C17" s="24">
+        <v>68.2</v>
+      </c>
+      <c r="D17" s="24">
+        <v>50.5</v>
+      </c>
+      <c r="E17" s="24">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="F17" s="24">
+        <v>60.4</v>
+      </c>
+      <c r="G17" s="24">
+        <v>48.1</v>
+      </c>
+      <c r="H17" s="24">
+        <v>0.74560000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="24">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C18" s="24">
+        <v>78.8</v>
+      </c>
+      <c r="D18" s="24">
+        <v>35.9</v>
+      </c>
+      <c r="E18" s="24">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="F18" s="24">
+        <v>53.7</v>
+      </c>
+      <c r="G18" s="24">
+        <v>52</v>
+      </c>
+      <c r="H18" s="24">
+        <v>0.74560000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19" s="24">
+        <v>18</v>
+      </c>
+      <c r="C19" s="24">
+        <v>82.3</v>
+      </c>
+      <c r="D19" s="24">
+        <v>34</v>
+      </c>
+      <c r="E19" s="24">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F19" s="24">
+        <v>46</v>
+      </c>
+      <c r="G19" s="24">
+        <v>52.1</v>
+      </c>
+      <c r="H19" s="24">
+        <v>0.74560000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B20" s="24">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C20" s="24">
+        <v>54</v>
+      </c>
+      <c r="D20" s="24">
+        <v>62.9</v>
+      </c>
+      <c r="E20" s="24">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="F20" s="24">
+        <v>54.9</v>
+      </c>
+      <c r="G20" s="24">
+        <v>67.5</v>
+      </c>
+      <c r="H20" s="24">
+        <v>0.71140000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" s="24">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C21" s="24">
+        <v>57.6</v>
+      </c>
+      <c r="D21" s="24">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="E21" s="24">
+        <v>78.5</v>
+      </c>
+      <c r="F21" s="24">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="G21" s="24">
+        <v>55.7</v>
+      </c>
+      <c r="H21" s="24">
+        <v>0.71140000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="B22" s="24">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="C22" s="24">
+        <v>92.9</v>
+      </c>
+      <c r="D22" s="24">
+        <v>41.7</v>
+      </c>
+      <c r="E22" s="24">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="F22" s="24">
+        <v>64.5</v>
+      </c>
+      <c r="G22" s="24">
+        <v>45.7</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0.71140000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="B23" s="24">
         <v>22</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="C23" s="24">
+        <v>75.3</v>
+      </c>
+      <c r="D23" s="24">
+        <v>60.7</v>
+      </c>
+      <c r="E23" s="24">
+        <v>86.4</v>
+      </c>
+      <c r="F23" s="24">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="G23" s="24">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="H23" s="24">
+        <v>0.71140000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B24" s="24">
         <v>23</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="C24" s="24">
+        <v>75.3</v>
+      </c>
+      <c r="D24" s="24">
+        <v>71.2</v>
+      </c>
+      <c r="E24" s="24">
+        <v>70.2</v>
+      </c>
+      <c r="F24" s="24">
+        <v>45.9</v>
+      </c>
+      <c r="G24" s="24">
+        <v>54.1</v>
+      </c>
+      <c r="H24" s="24">
+        <v>0.71140000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B25" s="24">
+        <v>24</v>
+      </c>
+      <c r="C25" s="24">
+        <v>71.7</v>
+      </c>
+      <c r="D25" s="24">
+        <v>64.3</v>
+      </c>
+      <c r="E25" s="24">
+        <v>82.4</v>
+      </c>
+      <c r="F25" s="24">
+        <v>69.7</v>
+      </c>
+      <c r="G25" s="24">
+        <v>61.5</v>
+      </c>
+      <c r="H25" s="24">
+        <v>0.71140000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B26" s="24">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C26" s="24">
+        <v>82.3</v>
+      </c>
+      <c r="D26" s="24">
+        <v>53.3</v>
+      </c>
+      <c r="E26" s="24">
+        <v>78.5</v>
+      </c>
+      <c r="F26" s="24">
+        <v>72.5</v>
+      </c>
+      <c r="G26" s="24">
+        <v>57.3</v>
+      </c>
+      <c r="H26" s="24">
+        <v>0.71140000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="B27" s="24">
+        <v>26</v>
+      </c>
+      <c r="C27" s="24">
+        <v>78.8</v>
+      </c>
+      <c r="D27" s="24">
+        <v>55.2</v>
+      </c>
+      <c r="E27" s="24">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="F27" s="24">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="G27" s="24">
+        <v>41.7</v>
+      </c>
+      <c r="H27" s="24">
+        <v>0.71140000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B28" s="24">
         <v>27</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C28" s="24">
+        <v>68.2</v>
+      </c>
+      <c r="D28" s="24">
+        <v>42</v>
+      </c>
+      <c r="E28" s="24">
+        <v>86</v>
+      </c>
+      <c r="F28" s="24">
+        <v>50.7</v>
+      </c>
+      <c r="G28" s="24">
+        <v>68.2</v>
+      </c>
+      <c r="H28" s="24">
+        <v>0.71140000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="B29" s="24">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C29" s="24">
+        <v>57.6</v>
+      </c>
+      <c r="D29" s="24">
+        <v>53.3</v>
+      </c>
+      <c r="E29" s="24">
+        <v>82.5</v>
+      </c>
+      <c r="F29" s="24">
+        <v>60.6</v>
+      </c>
+      <c r="G29" s="24">
+        <v>58.8</v>
+      </c>
+      <c r="H29" s="24">
+        <v>0.71140000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="B30" s="24">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C30" s="24">
+        <v>68.2</v>
+      </c>
+      <c r="D30" s="24">
+        <v>75.3</v>
+      </c>
+      <c r="E30" s="24">
+        <v>72.5</v>
+      </c>
+      <c r="F30" s="24">
+        <v>56.1</v>
+      </c>
+      <c r="G30" s="24">
+        <v>52.7</v>
+      </c>
+      <c r="H30" s="24">
+        <v>0.71140000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="B31" s="24">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="C31" s="24">
+        <v>50.5</v>
+      </c>
+      <c r="D31" s="24">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E31" s="24">
+        <v>43.6</v>
+      </c>
+      <c r="F31" s="24">
+        <v>33.6</v>
+      </c>
+      <c r="G31" s="24">
+        <v>61.4</v>
+      </c>
+      <c r="H31" s="24">
+        <v>0.63680000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="B32" s="24">
         <v>31</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="C32" s="24">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D32" s="24">
+        <v>69.5</v>
+      </c>
+      <c r="E32" s="24">
+        <v>55.2</v>
+      </c>
+      <c r="F32" s="24">
+        <v>55.8</v>
+      </c>
+      <c r="G32" s="24">
+        <v>73.2</v>
+      </c>
+      <c r="H32" s="24">
+        <v>0.53590000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="B33" s="24">
         <v>32</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="C33" s="24">
+        <v>92.9</v>
+      </c>
+      <c r="D33" s="24">
+        <v>50.5</v>
+      </c>
+      <c r="E33" s="24">
+        <v>82.6</v>
+      </c>
+      <c r="F33" s="24">
+        <v>72</v>
+      </c>
+      <c r="G33" s="24">
+        <v>60</v>
+      </c>
+      <c r="H33" s="24">
+        <v>0.50009999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="B34" s="24">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="C34" s="24">
+        <v>50.5</v>
+      </c>
+      <c r="D34" s="24">
+        <v>72.7</v>
+      </c>
+      <c r="E34" s="24">
+        <v>58.5</v>
+      </c>
+      <c r="F34" s="24">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="G34" s="24">
+        <v>71</v>
+      </c>
+      <c r="H34" s="24">
+        <v>0.48049999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="B35" s="24">
+        <v>34</v>
+      </c>
+      <c r="C35" s="24">
+        <v>71.7</v>
+      </c>
+      <c r="D35" s="24">
+        <v>75.3</v>
+      </c>
+      <c r="E35" s="24">
+        <v>63.4</v>
+      </c>
+      <c r="F35" s="24">
+        <v>61.4</v>
+      </c>
+      <c r="G35" s="24">
+        <v>54.4</v>
+      </c>
+      <c r="H35" s="24">
+        <v>0.43480000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B36" s="24">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C36" s="24">
+        <v>85.9</v>
+      </c>
+      <c r="D36" s="24">
+        <v>91.8</v>
+      </c>
+      <c r="E36" s="24">
+        <v>63.9</v>
+      </c>
+      <c r="F36" s="24">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="G36" s="24">
+        <v>53.5</v>
+      </c>
+      <c r="H36" s="24">
+        <v>0.43480000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B37" s="24">
         <v>36</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C37" s="24">
+        <v>85.9</v>
+      </c>
+      <c r="D37" s="24">
+        <v>100</v>
+      </c>
+      <c r="E37" s="24">
+        <v>92.8</v>
+      </c>
+      <c r="F37" s="24">
+        <v>85.5</v>
+      </c>
+      <c r="G37" s="24">
+        <v>100</v>
+      </c>
+      <c r="H37" s="24">
+        <v>0.43480000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B38" s="24">
         <v>37</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="C38" s="24">
+        <v>92.9</v>
+      </c>
+      <c r="D38" s="24">
+        <v>100</v>
+      </c>
+      <c r="E38" s="24">
+        <v>86.3</v>
+      </c>
+      <c r="F38" s="24">
+        <v>55.9</v>
+      </c>
+      <c r="G38" s="24">
+        <v>83.5</v>
+      </c>
+      <c r="H38" s="24">
+        <v>0.43480000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B39" s="24">
         <v>38</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="C39" s="24">
+        <v>92.9</v>
+      </c>
+      <c r="D39" s="24">
+        <v>83.5</v>
+      </c>
+      <c r="E39" s="24">
+        <v>53.7</v>
+      </c>
+      <c r="F39" s="24">
+        <v>62.8</v>
+      </c>
+      <c r="G39" s="24">
+        <v>58.8</v>
+      </c>
+      <c r="H39" s="24">
+        <v>0.43480000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="B40" s="24">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="C40" s="24">
+        <v>36.4</v>
+      </c>
+      <c r="D40" s="24">
+        <v>92.6</v>
+      </c>
+      <c r="E40" s="24">
+        <v>82.7</v>
+      </c>
+      <c r="F40" s="24">
+        <v>52.7</v>
+      </c>
+      <c r="G40" s="24">
+        <v>53.8</v>
+      </c>
+      <c r="H40" s="24">
+        <v>0.41410000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B41" s="24">
         <v>40</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="C41" s="24">
+        <v>39.9</v>
+      </c>
+      <c r="D41" s="24">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="E41" s="24">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="F41" s="24">
+        <v>51.2</v>
+      </c>
+      <c r="G41" s="24">
+        <v>54.4</v>
+      </c>
+      <c r="H41" s="24">
+        <v>0.35920000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="B42" s="24">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="C42" s="24">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D42" s="24">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="E42" s="24">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="F42" s="24">
+        <v>59.7</v>
+      </c>
+      <c r="G42" s="24">
+        <v>57</v>
+      </c>
+      <c r="H42" s="24">
+        <v>0.35920000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B43" s="24">
+        <v>42</v>
+      </c>
+      <c r="C43" s="24">
+        <v>68.2</v>
+      </c>
+      <c r="D43" s="24">
+        <v>30.8</v>
+      </c>
+      <c r="E43" s="24">
+        <v>38.9</v>
+      </c>
+      <c r="F43" s="24">
+        <v>21.4</v>
+      </c>
+      <c r="G43" s="24">
+        <v>42.3</v>
+      </c>
+      <c r="H43" s="24">
+        <v>0.25409999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="B44" s="24">
         <v>43</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="C44" s="24">
+        <v>50.5</v>
+      </c>
+      <c r="D44" s="24">
+        <v>45.6</v>
+      </c>
+      <c r="E44" s="24">
+        <v>49.8</v>
+      </c>
+      <c r="F44" s="24">
+        <v>46.4</v>
+      </c>
+      <c r="G44" s="24">
+        <v>63.8</v>
+      </c>
+      <c r="H44" s="24">
+        <v>0.24759999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B45" s="24">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C45" s="24">
+        <v>43.4</v>
+      </c>
+      <c r="D45" s="24">
+        <v>24.8</v>
+      </c>
+      <c r="E45" s="24">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F45" s="24">
+        <v>46.9</v>
+      </c>
+      <c r="G45" s="24">
+        <v>55.6</v>
+      </c>
+      <c r="H45" s="24">
+        <v>0.2001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="B46" s="24">
         <v>45</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="C46" s="24">
+        <v>78.8</v>
+      </c>
+      <c r="D46" s="24">
+        <v>68.5</v>
+      </c>
+      <c r="E46" s="24">
+        <v>54.4</v>
+      </c>
+      <c r="F46" s="24">
+        <v>67.3</v>
+      </c>
+      <c r="G46" s="24">
+        <v>56</v>
+      </c>
+      <c r="H46" s="24">
+        <v>0.1464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="B47" s="24">
         <v>46</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="C47" s="24">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D47" s="24">
+        <v>64.8</v>
+      </c>
+      <c r="E47" s="24">
+        <v>79.8</v>
+      </c>
+      <c r="F47" s="24">
+        <v>59</v>
+      </c>
+      <c r="G47" s="24">
         <v>58</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>49</v>
+      <c r="H47" s="24">
+        <v>0.1326</v>
       </c>
     </row>
   </sheetData>
